--- a/biology/Zoologie/Encyocrypta_eneseff/Encyocrypta_eneseff.xlsx
+++ b/biology/Zoologie/Encyocrypta_eneseff/Encyocrypta_eneseff.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Encyocrypta eneseff est une espèce d'araignées mygalomorphes de la famille des Barychelidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Encyocrypta eneseff est une espèce d'araignées mygalomorphes de la famille des Barychelidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Calédonie[1]. Elle se rencontre sur le mont Do[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Calédonie. Elle se rencontre sur le mont Do.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 16 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 16 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en référence à la N.S.F.[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en référence à la N.S.F..
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Raven &amp; Churchill, 1991 : A revision of the mygalomorph spider genus Encyocrypta Simon in New Caledonia (Araneae Barychelidae). Zoologia Neocaledonica, vol. 2, Mémoires du Muséum National d'Histoire Naturelle de Paris, sér. A, vol. 149, p. 31-86.</t>
         </is>
